--- a/excel/sell_info.xlsx
+++ b/excel/sell_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12130" windowHeight="10580" firstSheet="8" activeTab="9"/>
+    <workbookView windowWidth="12130" windowHeight="10580" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="4.火花少女" sheetId="4" r:id="rId1"/>
@@ -2096,7 +2096,7 @@
     </r>
   </si>
   <si>
-    <t>月影幽光</t>
+    <t>10月影幽光</t>
   </si>
   <si>
     <t>cn+群内qq:小爱喵2954208705</t>
@@ -2147,7 +2147,7 @@
     <t>cn+群内qq:早早早896966376</t>
   </si>
   <si>
-    <t>少女心事</t>
+    <t>11少女心事</t>
   </si>
   <si>
     <t>cn+群内qq:魈夏870506295</t>
@@ -2171,7 +2171,7 @@
     <t>cn+群内qq:桃子3482567794</t>
   </si>
   <si>
-    <t>樱的风语</t>
+    <t>14樱の风语</t>
   </si>
   <si>
     <t>cn+群内qq:穆2409738125</t>
@@ -3671,8 +3671,8 @@
   <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64545454545454" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -3875,8 +3875,8 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -6689,7 +6689,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64545454545454" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -8543,7 +8543,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64545454545454" defaultRowHeight="14" outlineLevelCol="1"/>

--- a/excel/sell_info.xlsx
+++ b/excel/sell_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12130" windowHeight="10580" firstSheet="8" activeTab="10"/>
+    <workbookView windowWidth="24930" windowHeight="10730" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="4.火花少女" sheetId="4" r:id="rId1"/>
@@ -3672,7 +3672,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64545454545454" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -3875,7 +3875,7 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -8542,8 +8542,8 @@
   <sheetPr/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64545454545454" defaultRowHeight="14" outlineLevelCol="1"/>
